--- a/medicine/Pharmacie/Classe_ATC_R07/Classe_ATC_R07.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_R07/Classe_ATC_R07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC R07, dénommée « Autres médicaments de l'appareil respiratoire », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR07[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC R07, dénommée « Autres médicaments de l'appareil respiratoire », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR07. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
 </t>
         </is>
       </c>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>R07AA surfactants pulmonaires
-R07AA01 Palmitate de colfoscéril
+          <t>R07AA surfactants pulmonaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>R07AA01 Palmitate de colfoscéril
 R07AA02 Phospholipides naturels
-R07AA30 Associations
-R07AB Stimulants respiratoires
-R07AB01 Doxapram
+R07AA30 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R07A Autres produits pour le système respiratoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>R07AB Stimulants respiratoires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>R07AB01 Doxapram
 R07AB02 Nicéthamide
 R07AB03 Pentétrazol
 R07AB04 Étamivan (en)
@@ -529,9 +580,43 @@
 R07AB09 Mépixanox (en)
 R07AB52 Nikéthamide, associations
 R07AB53 Pentétrazol, associations
-QR07AB99 Stimulants respiratoires, associations
-R07AX Autres produits pour le système respiratoire
-R07AX01 Oxyde nitreux
+QR07AB99 Stimulants respiratoires, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>R07A Autres produits pour le système respiratoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>R07AX Autres produits pour le système respiratoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R07AX01 Oxyde nitreux
 R07AX02 Ivacaftor
 R07AX30 Ivacaftor et lumacaftor
 R07AX31 Ivacaftor et tézacaftor</t>
